--- a/xlsx/country_comparison/donation_mean.xlsx
+++ b/xlsx/country_comparison/donation_mean.xlsx
@@ -398,7 +398,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>34.9304083122612</v>
+        <v>34.9304086469416</v>
       </c>
       <c r="C2" t="n">
         <v>33.7439838771859</v>
@@ -421,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>32.4215787710923</v>
+        <v>32.4215786291119</v>
       </c>
       <c r="C3" t="n">
         <v>35.0933006004266</v>
